--- a/dados.xlsx
+++ b/dados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="631">
   <si>
     <t xml:space="preserve">B DA OBRA</t>
   </si>
@@ -1610,9 +1610,6 @@
   </si>
   <si>
     <t xml:space="preserve">AC-CIND-PR -GERMINIANO-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DP 20/08 - ADF MT</t>
   </si>
   <si>
     <t xml:space="preserve">B-1205386</t>
@@ -10758,7 +10755,7 @@
         <v>56</v>
       </c>
       <c r="G236" s="0" t="n">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="H236" s="0" t="s">
         <v>16</v>
@@ -10770,7 +10767,7 @@
         <v>45</v>
       </c>
       <c r="K236" s="0" t="n">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L236" s="0" t="s">
         <v>46</v>
@@ -12608,7 +12605,7 @@
         <v>412</v>
       </c>
       <c r="F285" s="0" t="n">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="G285" s="0" t="n">
         <v>220</v>
@@ -12687,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="H287" s="0" t="s">
-        <v>530</v>
+        <v>16</v>
       </c>
       <c r="I287" s="0" t="s">
         <v>443</v>
@@ -12704,7 +12701,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>-11.686504</v>
@@ -12716,7 +12713,7 @@
         <v>236</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F288" s="0" t="n">
         <v>5</v>
@@ -12742,7 +12739,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>-10.941636</v>
@@ -12754,7 +12751,7 @@
         <v>14</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F289" s="0" t="n">
         <v>0</v>
@@ -12780,7 +12777,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>-11.040037</v>
@@ -12792,7 +12789,7 @@
         <v>82</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F290" s="0" t="n">
         <v>2</v>
@@ -12818,7 +12815,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>-11.379699</v>
@@ -12830,7 +12827,7 @@
         <v>43</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F291" s="0" t="n">
         <v>0</v>
@@ -12856,7 +12853,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>-11.8267</v>
@@ -12868,7 +12865,7 @@
         <v>41</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F292" s="0" t="n">
         <v>2</v>
@@ -12894,7 +12891,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>-11.487973</v>
@@ -12906,7 +12903,7 @@
         <v>47</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F293" s="0" t="n">
         <v>1</v>
@@ -12932,7 +12929,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>-11.421895</v>
@@ -12944,7 +12941,7 @@
         <v>20</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F294" s="0" t="n">
         <v>1</v>
@@ -12970,7 +12967,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>-11.151783</v>
@@ -12982,7 +12979,7 @@
         <v>80</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F295" s="0" t="n">
         <v>1</v>
@@ -13008,7 +13005,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>-12.031977</v>
@@ -13020,7 +13017,7 @@
         <v>110</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F296" s="0" t="n">
         <v>1</v>
@@ -13046,7 +13043,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>-11.076391</v>
@@ -13058,7 +13055,7 @@
         <v>86</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F297" s="0" t="n">
         <v>1</v>
@@ -13084,7 +13081,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>-11.488014</v>
@@ -13096,7 +13093,7 @@
         <v>23</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F298" s="0" t="n">
         <v>1</v>
@@ -13122,7 +13119,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>0</v>
@@ -13134,7 +13131,7 @@
         <v>33</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F299" s="0" t="n">
         <v>1</v>
@@ -13160,7 +13157,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>-11.851369</v>
@@ -13172,7 +13169,7 @@
         <v>33</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F300" s="0" t="n">
         <v>1</v>
@@ -13198,7 +13195,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>0</v>
@@ -13210,22 +13207,22 @@
         <v>47</v>
       </c>
       <c r="E301" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="F301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H301" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="F301" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G301" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H301" s="0" t="s">
-        <v>559</v>
       </c>
       <c r="I301" s="0" t="s">
         <v>443</v>
       </c>
       <c r="J301" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K301" s="0" t="n">
         <v>0</v>
@@ -13236,7 +13233,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>0</v>
@@ -13248,16 +13245,16 @@
         <v>86</v>
       </c>
       <c r="E302" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="F302" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G302" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H302" s="0" t="s">
         <v>562</v>
-      </c>
-      <c r="F302" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G302" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H302" s="0" t="s">
-        <v>563</v>
       </c>
       <c r="I302" s="0" t="s">
         <v>443</v>
@@ -13274,7 +13271,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>-11.059728</v>
@@ -13286,7 +13283,7 @@
         <v>234</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F303" s="0" t="n">
         <v>164</v>
@@ -13295,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="I303" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J303" s="0" t="s">
         <v>123</v>
@@ -13309,7 +13306,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>-11.21093</v>
@@ -13321,7 +13318,7 @@
         <v>80</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F304" s="0" t="n">
         <v>1</v>
@@ -13330,10 +13327,10 @@
         <v>0</v>
       </c>
       <c r="H304" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I304" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J304" s="0" t="s">
         <v>65</v>
@@ -13347,7 +13344,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>-11.405925</v>
@@ -13359,7 +13356,7 @@
         <v>104</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F305" s="0" t="n">
         <v>15</v>
@@ -13368,10 +13365,10 @@
         <v>0</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I305" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J305" s="0" t="s">
         <v>108</v>
@@ -13385,7 +13382,7 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>-10.961785</v>
@@ -13397,7 +13394,7 @@
         <v>82</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F306" s="0" t="n">
         <v>18</v>
@@ -13406,10 +13403,10 @@
         <v>0</v>
       </c>
       <c r="H306" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I306" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J306" s="0" t="s">
         <v>153</v>
@@ -13423,7 +13420,7 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>-11.217438</v>
@@ -13435,7 +13432,7 @@
         <v>80</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F307" s="0" t="n">
         <v>2</v>
@@ -13447,7 +13444,7 @@
         <v>524</v>
       </c>
       <c r="I307" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J307" s="0" t="s">
         <v>65</v>
@@ -13461,7 +13458,7 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>-11.88578</v>
@@ -13473,7 +13470,7 @@
         <v>41</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F308" s="0" t="n">
         <v>36</v>
@@ -13482,10 +13479,10 @@
         <v>0</v>
       </c>
       <c r="H308" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I308" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J308" s="0" t="s">
         <v>32</v>
@@ -13499,7 +13496,7 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>-11.389027</v>
@@ -13511,7 +13508,7 @@
         <v>80</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F309" s="0" t="n">
         <v>1</v>
@@ -13520,10 +13517,10 @@
         <v>0</v>
       </c>
       <c r="H309" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I309" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J309" s="0" t="s">
         <v>108</v>
@@ -13537,7 +13534,7 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>-11.112039</v>
@@ -13549,7 +13546,7 @@
         <v>82</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F310" s="0" t="n">
         <v>12</v>
@@ -13558,10 +13555,10 @@
         <v>0</v>
       </c>
       <c r="H310" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I310" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J310" s="0" t="s">
         <v>497</v>
@@ -13578,10 +13575,10 @@
         <v>197</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D311" s="0" t="s">
         <v>96</v>
@@ -13599,7 +13596,7 @@
         <v>198</v>
       </c>
       <c r="I311" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J311" s="0" t="s">
         <v>199</v>
@@ -13613,7 +13610,7 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>-11.668602</v>
@@ -13625,19 +13622,19 @@
         <v>23</v>
       </c>
       <c r="E312" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="F312" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G312" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H312" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="F312" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G312" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H312" s="0" t="s">
-        <v>589</v>
-      </c>
       <c r="I312" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J312" s="0" t="s">
         <v>18</v>
@@ -13651,7 +13648,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>-11.688107</v>
@@ -13663,7 +13660,7 @@
         <v>89</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F313" s="0" t="n">
         <v>139</v>
@@ -13672,13 +13669,13 @@
         <v>0</v>
       </c>
       <c r="H313" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="I313" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="J313" s="0" t="s">
         <v>592</v>
-      </c>
-      <c r="I313" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="J313" s="0" t="s">
-        <v>593</v>
       </c>
       <c r="K313" s="0" t="n">
         <v>0</v>
@@ -13689,7 +13686,7 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>-11.256017</v>
@@ -13701,7 +13698,7 @@
         <v>61</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F314" s="0" t="n">
         <v>4</v>
@@ -13713,7 +13710,7 @@
         <v>524</v>
       </c>
       <c r="I314" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J314" s="0" t="s">
         <v>153</v>
@@ -13727,7 +13724,7 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>-11.90603</v>
@@ -13751,7 +13748,7 @@
         <v>524</v>
       </c>
       <c r="I315" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J315" s="0" t="s">
         <v>32</v>
@@ -13765,7 +13762,7 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>-11.834016</v>
@@ -13777,7 +13774,7 @@
         <v>110</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F316" s="0" t="n">
         <v>75</v>
@@ -13786,10 +13783,10 @@
         <v>0</v>
       </c>
       <c r="H316" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I316" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J316" s="0" t="s">
         <v>26</v>
@@ -13803,7 +13800,7 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B317" s="0" t="n">
         <v>-11.421787</v>
@@ -13815,7 +13812,7 @@
         <v>20</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F317" s="0" t="n">
         <v>111</v>
@@ -13824,13 +13821,13 @@
         <v>0</v>
       </c>
       <c r="H317" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I317" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J317" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K317" s="0" t="n">
         <v>0</v>
@@ -13841,7 +13838,7 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B318" s="0" t="n">
         <v>-11.195223</v>
@@ -13853,19 +13850,19 @@
         <v>241</v>
       </c>
       <c r="E318" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="F318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="F318" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G318" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H318" s="0" t="s">
-        <v>605</v>
-      </c>
       <c r="I318" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J318" s="0" t="s">
         <v>497</v>
@@ -13879,7 +13876,7 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B319" s="0" t="n">
         <v>-11.316533</v>
@@ -13891,19 +13888,19 @@
         <v>23</v>
       </c>
       <c r="E319" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="F319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H319" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="F319" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G319" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H319" s="0" t="s">
-        <v>608</v>
-      </c>
       <c r="I319" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J319" s="0" t="s">
         <v>18</v>
@@ -13917,7 +13914,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B320" s="0" t="n">
         <v>-11.527306</v>
@@ -13929,7 +13926,7 @@
         <v>47</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F320" s="0" t="n">
         <v>31</v>
@@ -13938,10 +13935,10 @@
         <v>0</v>
       </c>
       <c r="H320" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I320" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J320" s="0" t="s">
         <v>497</v>
@@ -13955,7 +13952,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>-11.667211</v>
@@ -13967,7 +13964,7 @@
         <v>23</v>
       </c>
       <c r="E321" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F321" s="0" t="n">
         <v>5</v>
@@ -13976,10 +13973,10 @@
         <v>0</v>
       </c>
       <c r="H321" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I321" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J321" s="0" t="s">
         <v>18</v>
@@ -13993,7 +13990,7 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>-11.379444</v>
@@ -14005,7 +14002,7 @@
         <v>47</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F322" s="0" t="n">
         <v>7</v>
@@ -14014,10 +14011,10 @@
         <v>0</v>
       </c>
       <c r="H322" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I322" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J322" s="0" t="s">
         <v>58</v>
@@ -14031,7 +14028,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>-11.612004</v>
@@ -14043,19 +14040,19 @@
         <v>23</v>
       </c>
       <c r="E323" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="F323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H323" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="F323" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G323" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H323" s="0" t="s">
-        <v>618</v>
-      </c>
       <c r="I323" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J323" s="0" t="s">
         <v>18</v>
@@ -14069,7 +14066,7 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>-11.140806</v>
@@ -14081,7 +14078,7 @@
         <v>82</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F324" s="0" t="n">
         <v>38</v>
@@ -14090,10 +14087,10 @@
         <v>0</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I324" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J324" s="0" t="s">
         <v>153</v>
@@ -14107,7 +14104,7 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>-11.420743</v>
@@ -14119,7 +14116,7 @@
         <v>282</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F325" s="0" t="n">
         <v>8</v>
@@ -14128,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="H325" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I325" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J325" s="0" t="s">
         <v>497</v>
@@ -14145,7 +14142,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>-11.467157</v>
@@ -14157,19 +14154,19 @@
         <v>47</v>
       </c>
       <c r="E326" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="F326" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H326" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="F326" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G326" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H326" s="0" t="s">
-        <v>625</v>
-      </c>
       <c r="I326" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J326" s="0" t="s">
         <v>58</v>
@@ -14198,13 +14195,13 @@
         <v>412</v>
       </c>
       <c r="F327" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G327" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I327" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J327" s="0" t="s">
         <v>45</v>
@@ -14218,7 +14215,7 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>-11.253571</v>
@@ -14230,19 +14227,19 @@
         <v>80</v>
       </c>
       <c r="E328" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="F328" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H328" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="F328" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G328" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H328" s="0" t="s">
-        <v>628</v>
-      </c>
       <c r="I328" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J328" s="0" t="s">
         <v>65</v>
@@ -14256,7 +14253,7 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>-11.326123</v>
@@ -14268,19 +14265,19 @@
         <v>43</v>
       </c>
       <c r="E329" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="F329" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G329" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H329" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="F329" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G329" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H329" s="0" t="s">
-        <v>631</v>
-      </c>
       <c r="I329" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J329" s="0" t="s">
         <v>58</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="629">
   <si>
     <t xml:space="preserve">B DA OBRA</t>
   </si>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">AC-CIND-POV-FLORESTA 9952-RURAL</t>
   </si>
   <si>
-    <t xml:space="preserve">DP - 26/08 - ADF BT </t>
+    <t xml:space="preserve">DP - 26/08 - ADF BT - TR 30KvA CABO 474M CABO 3X35(35)MM²</t>
   </si>
   <si>
     <t xml:space="preserve">B-1048584</t>
@@ -1708,7 +1708,7 @@
     <t xml:space="preserve">AC-CIND-RUA-S O PEDRO-RURAL</t>
   </si>
   <si>
-    <t xml:space="preserve">DP  28/08 - ADF MT E SUBSTITUIR TR 5KvA POR 30KvA EM REDE 13,8Kv</t>
+    <t xml:space="preserve">DP  28/08 - ADF MT E SUBSTITUIR TR 5KvA POR 30KvA EM REDE 13,8Kv - TR 30KvA </t>
   </si>
   <si>
     <t xml:space="preserve">B-0816827</t>
@@ -1888,13 +1888,7 @@
     <t xml:space="preserve">AC-CIND-POV-POCO-RURAL</t>
   </si>
   <si>
-    <t xml:space="preserve">B-0933369</t>
-  </si>
-  <si>
     <t xml:space="preserve">MP-CCOL POV AGUADA NOVA RURAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N3 PARA N4 EM POSTE EXISTETE - OBRA CANCELADA</t>
   </si>
   <si>
     <t xml:space="preserve">B-1213879</t>
@@ -11582,7 +11576,7 @@
         <v>14</v>
       </c>
       <c r="G258" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H258" s="0" t="s">
         <v>453</v>
@@ -11594,7 +11588,7 @@
         <v>65</v>
       </c>
       <c r="K258" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L258" s="0" t="s">
         <v>66</v>
@@ -12076,7 +12070,7 @@
         <v>31</v>
       </c>
       <c r="G271" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H271" s="0" t="s">
         <v>486</v>
@@ -12088,7 +12082,7 @@
         <v>328</v>
       </c>
       <c r="K271" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L271" s="0" t="s">
         <v>19</v>
@@ -12190,7 +12184,7 @@
         <v>23</v>
       </c>
       <c r="G274" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H274" s="0" t="s">
         <v>496</v>
@@ -12202,7 +12196,7 @@
         <v>497</v>
       </c>
       <c r="K274" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L274" s="0" t="s">
         <v>66</v>
@@ -12605,7 +12599,7 @@
         <v>412</v>
       </c>
       <c r="F285" s="0" t="n">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G285" s="0" t="n">
         <v>220</v>
@@ -12643,7 +12637,7 @@
         <v>57</v>
       </c>
       <c r="G286" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H286" s="0" t="s">
         <v>527</v>
@@ -12655,7 +12649,7 @@
         <v>79</v>
       </c>
       <c r="K286" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L286" s="0" t="s">
         <v>66</v>
@@ -14142,40 +14136,40 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E326" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="B326" s="0" t="n">
-        <v>-11.467157</v>
-      </c>
-      <c r="C326" s="0" t="n">
-        <v>-41.828505</v>
-      </c>
-      <c r="D326" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E326" s="0" t="s">
-        <v>623</v>
-      </c>
       <c r="F326" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G326" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H326" s="0" t="s">
-        <v>624</v>
+        <v>198</v>
       </c>
       <c r="I326" s="0" t="s">
         <v>565</v>
       </c>
       <c r="J326" s="0" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="K326" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L326" s="0" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14195,7 +14189,7 @@
         <v>412</v>
       </c>
       <c r="F327" s="0" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="G327" s="0" t="n">
         <v>0</v>
@@ -14215,7 +14209,7 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>-11.253571</v>
@@ -14227,7 +14221,7 @@
         <v>80</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F328" s="0" t="n">
         <v>0</v>
@@ -14236,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="H328" s="0" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I328" s="0" t="s">
         <v>565</v>
@@ -14253,7 +14247,7 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>-11.326123</v>
@@ -14265,7 +14259,7 @@
         <v>43</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F329" s="0" t="n">
         <v>16</v>
@@ -14274,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="H329" s="0" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I329" s="0" t="s">
         <v>565</v>
